--- a/medicine/Pharmacie/Onxeo/Onxeo.xlsx
+++ b/medicine/Pharmacie/Onxeo/Onxeo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Onxeo, créée en 1997, est une société spécialisée dans l'achat ou le développement de candidats médicaments, déjà testés sur l'animal, qui sont dignes d'être testés sur l'homme[1]. Elle est cotée à la bourse de Paris.
+Onxeo, créée en 1997, est une société spécialisée dans l'achat ou le développement de candidats médicaments, déjà testés sur l'animal, qui sont dignes d'être testés sur l'homme. Elle est cotée à la bourse de Paris.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Produits en portefeuille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>AsiDNA est un inhibiteur de la résistance des cellules cancéreuses. On soupçonne qu'il pourrait être utilisé dans le cancer de l'ovaire en cas de résistance au niraparib en cas de récidive chez les patientes. En mai 2020, l'Agence nationale de sécurité du médicament et des produits de santé (ANSM) a autorisé une étude en phase 1b dans le cadre du projet REVocan[2], qui pourrait être suivie d'une phase 2 à partir du 2e semestre 2021[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>AsiDNA est un inhibiteur de la résistance des cellules cancéreuses. On soupçonne qu'il pourrait être utilisé dans le cancer de l'ovaire en cas de résistance au niraparib en cas de récidive chez les patientes. En mai 2020, l'Agence nationale de sécurité du médicament et des produits de santé (ANSM) a autorisé une étude en phase 1b dans le cadre du projet REVocan, qui pourrait être suivie d'une phase 2 à partir du 2e semestre 2021.
 OX401 est destiné à tromper les cellules cancéreuses qui sont tentées de se réparer après avoir endommagées par une chimiothérapie.</t>
         </is>
       </c>
